--- a/運営書類/役割分担.xlsx
+++ b/運営書類/役割分担.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>総務</t>
     <rPh sb="0" eb="2">
@@ -88,13 +88,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>五日市</t>
-    <rPh sb="0" eb="3">
-      <t>イツカイチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>順位判定</t>
     <rPh sb="0" eb="2">
       <t>ジュンイ</t>
@@ -252,137 +245,225 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>河合</t>
+    <rPh sb="0" eb="2">
+      <t>カワイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大谷</t>
+    <rPh sb="0" eb="2">
+      <t>オオタニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>尾川</t>
+    <rPh sb="0" eb="2">
+      <t>オガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川崎</t>
+    <rPh sb="0" eb="2">
+      <t>カワサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>櫛田</t>
+    <rPh sb="0" eb="2">
+      <t>クシダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>監察</t>
+    <rPh sb="0" eb="2">
+      <t>カンサツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>益田</t>
+    <rPh sb="0" eb="2">
+      <t>マスダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記録速報</t>
+    <rPh sb="0" eb="2">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソクホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岩井</t>
+    <rPh sb="0" eb="2">
+      <t>イワイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>河合</t>
+    <rPh sb="0" eb="2">
+      <t>カワイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>阿川</t>
+    <rPh sb="0" eb="2">
+      <t>アガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多田</t>
+    <rPh sb="0" eb="2">
+      <t>タダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤塚</t>
+    <rPh sb="0" eb="2">
+      <t>アカツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森実</t>
+    <rPh sb="0" eb="2">
+      <t>モリザネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中村</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松原</t>
+    <rPh sb="0" eb="2">
+      <t>マツバラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.4年生</t>
+    <rPh sb="3" eb="5">
+      <t>ネンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田口</t>
+    <rPh sb="0" eb="2">
+      <t>タグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>櫛田</t>
+    <rPh sb="0" eb="2">
+      <t>クシダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木原</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>尾川</t>
+    <rPh sb="0" eb="2">
+      <t>オガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下山</t>
+    <rPh sb="0" eb="2">
+      <t>シモヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川崎</t>
+    <rPh sb="0" eb="2">
+      <t>カワサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大谷</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白井</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石井</t>
+  </si>
+  <si>
+    <t>五日市</t>
+  </si>
+  <si>
+    <t>上田</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>河合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>岩井</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>と愉快な仲間たち</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>イワイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユカイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナカマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>土田</t>
-    <rPh sb="0" eb="2">
-      <t>ツチダ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>吉田</t>
-    <rPh sb="0" eb="2">
-      <t>ヨシダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>河合</t>
-    <rPh sb="0" eb="2">
-      <t>カワイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大谷</t>
-    <rPh sb="0" eb="2">
-      <t>オオタニ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>尾川</t>
-    <rPh sb="0" eb="2">
-      <t>オガワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>川崎</t>
-    <rPh sb="0" eb="2">
-      <t>カワサキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>櫛田</t>
-    <rPh sb="0" eb="2">
-      <t>クシダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>岩井</t>
-    <rPh sb="0" eb="2">
-      <t>イワイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>監察</t>
-    <rPh sb="0" eb="2">
-      <t>カンサツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>上田</t>
-    <rPh sb="0" eb="2">
-      <t>ウエダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>石井</t>
-    <rPh sb="0" eb="2">
-      <t>イシイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>白井</t>
-    <rPh sb="0" eb="2">
-      <t>シライ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>益田</t>
-    <rPh sb="0" eb="2">
-      <t>マスダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>基本3.4年生　1年生もここに入れるかも</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ネンセイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ネンセイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>謎明日確認</t>
-    <rPh sb="0" eb="1">
-      <t>ナゾ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>アシタ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>森え</t>
-    <rPh sb="0" eb="1">
-      <t>モリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保留</t>
-    <rPh sb="0" eb="2">
-      <t>ホリュウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -390,7 +471,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,6 +489,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -422,7 +520,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -440,32 +538,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -502,39 +574,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -557,89 +596,72 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -958,7 +980,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -967,254 +989,310 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="7" t="s">
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="7" t="s">
+      <c r="C7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="18"/>
+      <c r="B9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="16"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="7" t="s">
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="B12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="7" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="D18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="4"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B13:E13"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B13:D13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/運営書類/役割分担.xlsx
+++ b/運営書類/役割分担.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>総務</t>
     <rPh sb="0" eb="2">
@@ -321,13 +321,6 @@
     <t>阿川</t>
     <rPh sb="0" eb="2">
       <t>アガワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>多田</t>
-    <rPh sb="0" eb="2">
-      <t>タダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -459,11 +452,25 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>多田</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>土田</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>吉田</t>
+    <rPh sb="0" eb="2">
+      <t>ヨシダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森</t>
+    <rPh sb="0" eb="1">
+      <t>モリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -520,7 +527,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -596,13 +603,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -642,12 +662,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -660,7 +674,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -980,7 +1003,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1038,10 +1061,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
@@ -1057,10 +1080,10 @@
         <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="5"/>
@@ -1076,10 +1099,10 @@
         <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="5"/>
@@ -1092,7 +1115,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1100,20 +1123,20 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>36</v>
@@ -1121,25 +1144,23 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="18"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
@@ -1163,7 +1184,7 @@
         <v>35</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1192,11 +1213,11 @@
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
+      <c r="B13" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="5"/>
@@ -1205,13 +1226,15 @@
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="D14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="5"/>
@@ -1220,7 +1243,7 @@
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="19" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="4"/>
@@ -1253,7 +1276,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>38</v>
@@ -1267,14 +1290,14 @@
       <c r="A18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -1282,7 +1305,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="4"/>
-      <c r="B19" s="16"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
